--- a/iadt/params.xlsx
+++ b/iadt/params.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\iadt\iadt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCB\Kiem toan\2022\GIA DINH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CUST_GROUP" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>cust_group_code</t>
   </si>
@@ -121,47 +121,57 @@
     <t>PTVC</t>
   </si>
   <si>
-    <t>Chứng thư bảo lãnh</t>
-  </si>
-  <si>
-    <t>Khác</t>
-  </si>
-  <si>
-    <t>Trái phiếu</t>
+    <t>Bảo lãnh</t>
+  </si>
+  <si>
+    <t>GTCG do DN phát hành</t>
+  </si>
+  <si>
+    <t>GTCG khác</t>
+  </si>
+  <si>
+    <t>GTCG OCB phát hành</t>
+  </si>
+  <si>
+    <t>GTCG TCTD phát hành</t>
+  </si>
+  <si>
+    <t>Tín phiếu</t>
+  </si>
+  <si>
+    <t>Trái phiếu Chính phủ/Tỉnh/TP</t>
+  </si>
+  <si>
+    <t>Trái phiếu DN</t>
+  </si>
+  <si>
+    <t>Trái phiếu OCB</t>
+  </si>
+  <si>
+    <t>Trái phiếu TCTD</t>
+  </si>
+  <si>
+    <t>Vàng/ kim loại quý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,10 +186,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -825,609 +833,921 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
+        <v>408</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>409</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>410</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>601</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>602</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>603</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>604</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>605</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>606</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>607</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>608</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>609</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>610</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>611</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>612</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>613</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>614</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>614</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>201</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>202</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>203</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>204</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>205</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>206</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>405</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>406</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>407</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>401</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>402</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>413</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>423</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>424</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>403</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>404</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>901</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>902</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>904</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>701</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>702</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>801</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>802</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>803</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>804</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>805</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>806</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>807</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>808</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>809</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>810</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>811</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>812</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>817</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>903</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>701</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>702</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>703</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>991</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>992</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>993</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>994</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>995</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>813</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>814</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>815</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>904</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>905</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>990</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>991</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>992</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>994</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>811</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="B60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>812</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>816</v>
+      </c>
+      <c r="B61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>813</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>814</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>101</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>102</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>103</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>104</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>105</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>106</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>107</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>108</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>109</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>110</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>112</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>113</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>114</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>116</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>801</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>802</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>803</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>804</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>805</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>806</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>807</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>808</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>810</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>816</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>809</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>406</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>418</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>419</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>413</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>119</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>120</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>129</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>411</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>412</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>306</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>307</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>308</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>309</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>310</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>311</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>318</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>304</v>
+      </c>
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>305</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>317</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>301</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>314</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>993</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>312</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>409</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>995</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>27</v>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>315</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>302</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>303</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>316</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>501</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>502</v>
+      </c>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>503</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>504</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
